--- a/GettingDataCourseProject/newFeatures.xlsx
+++ b/GettingDataCourseProject/newFeatures.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\DataScience\GettingDataCourseProject\rScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\DataScience\DataScience\GettingDataCourseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
+    <sheet name="codebook" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">features!$A$7:$F$554</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="586">
   <si>
     <t>tBodyAcc-mean()-X</t>
   </si>
@@ -1465,13 +1466,329 @@
   </si>
   <si>
     <t>BodyGyroscopeMagnitude</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>BodyAccelMean_Xaxis</t>
+  </si>
+  <si>
+    <t>BodyAccelMean_Yaxis</t>
+  </si>
+  <si>
+    <t>BodyAccelMean_Zaxis</t>
+  </si>
+  <si>
+    <t>StDev</t>
+  </si>
+  <si>
+    <t>BodyAccelStDev_Xaxis</t>
+  </si>
+  <si>
+    <t>BodyAccelStDev_Yaxis</t>
+  </si>
+  <si>
+    <t>BodyAccelStDev_Zaxis</t>
+  </si>
+  <si>
+    <t>GravityAccelMean_Xaxis</t>
+  </si>
+  <si>
+    <t>GravityAccelMean_Yaxis</t>
+  </si>
+  <si>
+    <t>GravityAccelMean_Zaxis</t>
+  </si>
+  <si>
+    <t>GravityAccelStDev_Xaxis</t>
+  </si>
+  <si>
+    <t>GravityAccelStDev_Yaxis</t>
+  </si>
+  <si>
+    <t>GravityAccelStDev_Zaxis</t>
+  </si>
+  <si>
+    <t>BodyAccelJerkMean_Xaxis</t>
+  </si>
+  <si>
+    <t>BodyAccelJerkMean_Yaxis</t>
+  </si>
+  <si>
+    <t>BodyAccelJerkMean_Zaxis</t>
+  </si>
+  <si>
+    <t>BodyAccelJerkStDev_Xaxis</t>
+  </si>
+  <si>
+    <t>BodyAccelJerkStDev_Yaxis</t>
+  </si>
+  <si>
+    <t>BodyAccelJerkStDev_Zaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeMean_Xaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeMean_Yaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeMean_Zaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeStDev_Xaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeStDev_Yaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeStDev_Zaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeJerkMean_Xaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeJerkMean_Yaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeJerkMean_Zaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeJerkStDev_Xaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeJerkStDev_Yaxis</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeJerkStDev_Zaxis</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>BodyAccelMagnitudeMean</t>
+  </si>
+  <si>
+    <t>BodyAccelMagnitudeStDev</t>
+  </si>
+  <si>
+    <t>GravityAccelMagnitudeMean</t>
+  </si>
+  <si>
+    <t>GravityAccelMagnitudeStDev</t>
+  </si>
+  <si>
+    <t>BodyAccelJerkMagnitudeMean</t>
+  </si>
+  <si>
+    <t>BodyAccelJerkMagnitudeStDev</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeMagnitudeMean</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeMagnitudeStDev</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeJerkMagnitudeMean</t>
+  </si>
+  <si>
+    <t>BodyGyroscopeJerkMagnitudeStDev</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccel</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelMean_Xaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelMean_Yaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelMean_Zaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelStDev_Xaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelStDev_Yaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelStDev_Zaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelJerk</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelJerkMean_Xaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelJerkMean_Yaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelJerkMean_Zaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelJerkStDev_Xaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelJerkStDev_Yaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelJerkStDev_Zaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscope</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeMean_Xaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeMean_Yaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeMean_Zaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeStDev_Xaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeStDev_Yaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeStDev_Zaxis</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelMagnitude</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelMagnitudeMean</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelMagnitudeStDev</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelJerkMagnitude</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelJerkMagnitudeMean</t>
+  </si>
+  <si>
+    <t>FFT_BodyAccelJerkMagnitudeStDev</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeMagnitude</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeMagnitudeMean</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeMagnitudeStDev</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeJerkMagnitude</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeJerkMagnitudeMean</t>
+  </si>
+  <si>
+    <t>FFT_BodyGyroscopeJerkMagnitudeStDev</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Type</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Summary Type</t>
+  </si>
+  <si>
+    <t>Phone Accelerometer and Gyroscope Data</t>
+  </si>
+  <si>
+    <t>Processed data set derived from UCI HAR dataset</t>
+  </si>
+  <si>
+    <t>Measurement Features</t>
+  </si>
+  <si>
+    <t>Classification Features</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Subjects, numbered 1 - 30</t>
+  </si>
+  <si>
+    <t>6 Activity types: Sitting, Standing, Laying, Walking, Walking Downstairs, Walking Upstairs</t>
+  </si>
+  <si>
+    <t>SubjectNumber</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Data classified by subject and activity</t>
+  </si>
+  <si>
+    <t>Acceleration and Gyroscope Position and Magnitude measured in 3 dimensions, including Fourier Transforms</t>
+  </si>
+  <si>
+    <t>Acceleration Vector of Subject</t>
+  </si>
+  <si>
+    <t>Acceleration Vector due to Gravity</t>
+  </si>
+  <si>
+    <t>Jerk Vector of Subject</t>
+  </si>
+  <si>
+    <t>Rotational Acceleration Vector of Subject</t>
+  </si>
+  <si>
+    <t>Each Measure is provided as position and magnitude; Mean and Standard Deviations in 3 dimensions are given for position; Mean and Standard Deviation also given for Magnitude</t>
+  </si>
+  <si>
+    <t>Jerk of Rotational Acceleration Vector of Subject</t>
+  </si>
+  <si>
+    <t>Fourier Transforms are provided for position and magnitude of Body Acceleration, Body Acceleration Jerk, and Body Rotational Acceleration ("Gyroscope") vectors.</t>
+  </si>
+  <si>
+    <t>Original data available at http://archive.ics.uci.edu/ml/datasets/Human+Activity+Recognition+Using+Smartphones
+last accessed May 24, 2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1602,6 +1919,28 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1788,7 +2127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1903,6 +2242,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1948,8 +2302,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2274,8 +2639,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:I537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14312,4 +14677,1325 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" fitToHeight="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>